--- a/G30_firefighter_route.xlsx
+++ b/G30_firefighter_route.xlsx
@@ -474,7 +474,7 @@
         <v>207.1617725353787</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>207.1617725353787</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +542,7 @@
         <v>56.859475903318</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>56.859475903318</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -610,7 +610,7 @@
         <v>117.6435293588219</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>117.6435293588219</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>262.2689459314618</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>262.2689459314618</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>79.30952023559341</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>79.30952023559341</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -780,7 +780,7 @@
         <v>74.84650960465692</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>74.84650960465692</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>89.15716460273958</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>89.15716460273958</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>146.0136979875518</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>146.0136979875518</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>107.8378412246833</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>107.8378412246833</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>87.28115489611719</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>87.28115489611719</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>57.28001396647874</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>57.28001396647874</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>222.3803048833237</v>
       </c>
       <c r="E32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>222.3803048833237</v>
       </c>
       <c r="E33" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>337.1705799739948</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>337.1705799739948</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>54.67174773134658</v>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>54.67174773134658</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>92.34717104492157</v>
       </c>
       <c r="E38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>92.34717104492157</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         <v>268.1641288464958</v>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>268.1641288464958</v>
       </c>
       <c r="E43" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1222,7 +1222,7 @@
         <v>227</v>
       </c>
       <c r="E46" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>227</v>
       </c>
       <c r="E47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>157.0031846810758</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>157.0031846810758</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1324,7 +1324,7 @@
         <v>137.7860660589452</v>
       </c>
       <c r="E52" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>137.7860660589452</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1426,7 +1426,7 @@
         <v>129.0348790056394</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>129.0348790056394</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>162.077142126828</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>162.077142126828</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>181.0027624098594</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>181.0027624098594</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>192.566871501824</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>192.566871501824</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>206.7123605399542</v>
       </c>
       <c r="E66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>206.7123605399542</v>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -1630,7 +1630,7 @@
         <v>148.2464164828277</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>148.2464164828277</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>56.22277118748239</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>56.22277118748239</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -1732,7 +1732,7 @@
         <v>216.1480973777007</v>
       </c>
       <c r="E76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>216.1480973777007</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>266.8951104835006</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>266.8951104835006</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>88.0056816347672</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>88.0056816347672</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>113.1768527570899</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>113.1768527570899</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>132.9360748630709</v>
       </c>
       <c r="E84" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>132.9360748630709</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>364.0673014704836</v>
       </c>
       <c r="E86" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>364.0673014704836</v>
       </c>
       <c r="E87" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>94.26027795418386</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>94.26027795418386</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -2004,7 +2004,7 @@
         <v>201.7250604163994</v>
       </c>
       <c r="E92" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>201.7250604163994</v>
       </c>
       <c r="E93" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>225.4706189284981</v>
       </c>
       <c r="E94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>225.4706189284981</v>
       </c>
       <c r="E95" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -2106,7 +2106,7 @@
         <v>79.40403012442127</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>79.40403012442127</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>68.54195795277518</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>68.54195795277518</v>
       </c>
       <c r="E101" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>330.0242415338607</v>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>330.0242415338607</v>
       </c>
       <c r="E103" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>193.2149062572554</v>
       </c>
       <c r="E104" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>193.2149062572554</v>
       </c>
       <c r="E105" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>147.898613921835</v>
       </c>
       <c r="E106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>147.898613921835</v>
       </c>
       <c r="E107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -2310,7 +2310,7 @@
         <v>262.246067654026</v>
       </c>
       <c r="E110" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>262.246067654026</v>
       </c>
       <c r="E111" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
@@ -2378,7 +2378,7 @@
         <v>78.03204469959762</v>
       </c>
       <c r="E114" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>78.03204469959762</v>
       </c>
       <c r="E115" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -2446,7 +2446,7 @@
         <v>65.92419889539804</v>
       </c>
       <c r="E118" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>65.92419889539804</v>
       </c>
       <c r="E119" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
@@ -2548,7 +2548,7 @@
         <v>60.37383539249432</v>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>60.37383539249432</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>231.9051530259731</v>
       </c>
       <c r="E126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>231.9051530259731</v>
       </c>
       <c r="E127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/G30_firefighter_route.xlsx
+++ b/G30_firefighter_route.xlsx
@@ -474,7 +474,7 @@
         <v>207.1617725353787</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>207.1617725353787</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>40.24922359499622</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>40.24922359499622</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>56.859475903318</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>56.859475903318</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>88.2779700718135</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>88.2779700718135</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>117.6435293588219</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>117.6435293588219</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>197.3068675946177</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>197.3068675946177</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>262.2689459314618</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>262.2689459314618</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>79.30952023559341</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>79.30952023559341</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>74.14849964766651</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>74.14849964766651</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>74.84650960465692</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>74.84650960465692</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -848,7 +848,7 @@
         <v>146.0136979875518</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>146.0136979875518</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>107.8378412246833</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>107.8378412246833</v>
       </c>
       <c r="E27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>87.28115489611719</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>87.28115489611719</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -984,7 +984,7 @@
         <v>222.3803048833237</v>
       </c>
       <c r="E32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>222.3803048833237</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>337.1705799739948</v>
       </c>
       <c r="E34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>337.1705799739948</v>
       </c>
       <c r="E35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>54.67174773134658</v>
       </c>
       <c r="E36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>54.67174773134658</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>92.34717104492157</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>92.34717104492157</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         <v>268.1641288464958</v>
       </c>
       <c r="E42" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>268.1641288464958</v>
       </c>
       <c r="E43" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1222,7 +1222,7 @@
         <v>227</v>
       </c>
       <c r="E46" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>227</v>
       </c>
       <c r="E47" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>157.0031846810758</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>157.0031846810758</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>41.6293165929973</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>41.6293165929973</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>137.7860660589452</v>
       </c>
       <c r="E52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>137.7860660589452</v>
       </c>
       <c r="E53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>268.7936011143123</v>
       </c>
       <c r="E54" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>268.7936011143123</v>
       </c>
       <c r="E55" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>217.6235281397671</v>
       </c>
       <c r="E56" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>217.6235281397671</v>
       </c>
       <c r="E57" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>129.0348790056394</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>129.0348790056394</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>162.077142126828</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>162.077142126828</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>181.0027624098594</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>181.0027624098594</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>192.566871501824</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>192.566871501824</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>206.7123605399542</v>
       </c>
       <c r="E66" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>206.7123605399542</v>
       </c>
       <c r="E67" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>86.68333173107735</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>86.68333173107735</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>148.2464164828277</v>
       </c>
       <c r="E70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>148.2464164828277</v>
       </c>
       <c r="E71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>56.22277118748239</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>56.22277118748239</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>49.73932046178355</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>49.73932046178355</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>216.1480973777007</v>
       </c>
       <c r="E76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>216.1480973777007</v>
       </c>
       <c r="E77" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>266.8951104835006</v>
       </c>
       <c r="E78" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>266.8951104835006</v>
       </c>
       <c r="E79" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>88.0056816347672</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>88.0056816347672</v>
       </c>
       <c r="E81" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>113.1768527570899</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>113.1768527570899</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>132.9360748630709</v>
       </c>
       <c r="E84" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>132.9360748630709</v>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>364.0673014704836</v>
       </c>
       <c r="E86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>364.0673014704836</v>
       </c>
       <c r="E87" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>94.26027795418386</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>94.26027795418386</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>159.0503065070923</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>159.0503065070923</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>201.7250604163994</v>
       </c>
       <c r="E92" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>201.7250604163994</v>
       </c>
       <c r="E93" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
@@ -2106,7 +2106,7 @@
         <v>79.40403012442127</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>79.40403012442127</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>68.54195795277518</v>
       </c>
       <c r="E100" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>68.54195795277518</v>
       </c>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>330.0242415338607</v>
       </c>
       <c r="E102" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>330.0242415338607</v>
       </c>
       <c r="E103" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>193.2149062572554</v>
       </c>
       <c r="E104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>193.2149062572554</v>
       </c>
       <c r="E105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>147.898613921835</v>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>147.898613921835</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         <v>78.03204469959762</v>
       </c>
       <c r="E114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>78.03204469959762</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>165.3027525481654</v>
       </c>
       <c r="E116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>165.3027525481654</v>
       </c>
       <c r="E117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>65.92419889539804</v>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>65.92419889539804</v>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>403.178620464925</v>
       </c>
       <c r="E120" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>403.178620464925</v>
       </c>
       <c r="E121" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
@@ -2548,7 +2548,7 @@
         <v>60.37383539249432</v>
       </c>
       <c r="E124" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>60.37383539249432</v>
       </c>
       <c r="E125" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">

--- a/G30_firefighter_route.xlsx
+++ b/G30_firefighter_route.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>207.1617725353787</v>
+        <v>207.6342938919291</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>207.1617725353787</v>
+        <v>207.6342938919291</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>40.24922359499622</v>
+        <v>205.6817930688081</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>40.24922359499622</v>
+        <v>205.6817930688081</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>56.859475903318</v>
+        <v>367.6193683689694</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
       <c r="D7" t="n">
-        <v>56.859475903318</v>
+        <v>367.6193683689694</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>88.2779700718135</v>
+        <v>108.5218871933215</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>88.2779700718135</v>
+        <v>108.5218871933215</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>117.6435293588219</v>
+        <v>455.0032966913537</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>117.6435293588219</v>
+        <v>455.0032966913537</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -635,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>197.3068675946177</v>
+        <v>112.8007092176286</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -652,13 +652,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>197.3068675946177</v>
+        <v>112.8007092176286</v>
       </c>
       <c r="E13" t="n">
         <v>11</v>
@@ -669,16 +669,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>262.2689459314618</v>
+        <v>336.0372003216311</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>262.2689459314618</v>
+        <v>336.0372003216311</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>79.30952023559341</v>
+        <v>338.5985823951423</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>79.30952023559341</v>
+        <v>338.5985823951423</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>74.14849964766651</v>
+        <v>980.0183671748198</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>74.14849964766651</v>
+        <v>980.0183671748198</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>74.84650960465692</v>
+        <v>241.3565826738521</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>74.84650960465692</v>
+        <v>241.3565826738521</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>89.15716460273958</v>
+        <v>129.0348790056394</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>89.15716460273958</v>
+        <v>129.0348790056394</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
-        <v>146.0136979875518</v>
+        <v>52.39274758971894</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>146.0136979875518</v>
+        <v>52.39274758971894</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>107.8378412246833</v>
+        <v>152.1610988393551</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>107.8378412246833</v>
+        <v>152.1610988393551</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" t="n">
-        <v>87.28115489611719</v>
+        <v>308.1850093693722</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>87.28115489611719</v>
+        <v>308.1850093693722</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>57.28001396647874</v>
+        <v>192.3538406167135</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>57.28001396647874</v>
+        <v>192.3538406167135</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>222.3803048833237</v>
+        <v>208.5809195492243</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>222.3803048833237</v>
+        <v>208.5809195492243</v>
       </c>
       <c r="E33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D34" t="n">
-        <v>337.1705799739948</v>
+        <v>263.8654960391752</v>
       </c>
       <c r="E34" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D35" t="n">
-        <v>337.1705799739948</v>
+        <v>263.8654960391752</v>
       </c>
       <c r="E35" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
-        <v>54.67174773134658</v>
+        <v>52.40229002629561</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D37" t="n">
-        <v>54.67174773134658</v>
+        <v>52.40229002629561</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C38" t="n">
         <v>24</v>
       </c>
       <c r="D38" t="n">
-        <v>92.34717104492157</v>
+        <v>207.4801195295588</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>24</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>92.34717104492157</v>
+        <v>207.4801195295588</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C40" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
-        <v>151.0033112219729</v>
+        <v>272.0091910211859</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
-        <v>151.0033112219729</v>
+        <v>272.0091910211859</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D42" t="n">
-        <v>268.1641288464958</v>
+        <v>76.48529270389177</v>
       </c>
       <c r="E42" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>268.1641288464958</v>
+        <v>76.48529270389177</v>
       </c>
       <c r="E43" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
-        <v>153.0555454728773</v>
+        <v>100</v>
       </c>
       <c r="E44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D45" t="n">
-        <v>153.0555454728773</v>
+        <v>100</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
-        <v>227</v>
+        <v>187.3953041033846</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>227</v>
+        <v>187.3953041033846</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>157.0031846810758</v>
+        <v>644.0939372482868</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>157.0031846810758</v>
+        <v>644.0939372482868</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>41.6293165929973</v>
+        <v>40.80441152620633</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D51" t="n">
-        <v>41.6293165929973</v>
+        <v>40.80441152620633</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>137.7860660589452</v>
+        <v>206.0218435020908</v>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>137.7860660589452</v>
+        <v>206.0218435020908</v>
       </c>
       <c r="E53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
+        <v>22</v>
+      </c>
+      <c r="D54" t="n">
+        <v>605.4370322337411</v>
+      </c>
+      <c r="E54" t="n">
         <v>30</v>
-      </c>
-      <c r="D54" t="n">
-        <v>268.7936011143123</v>
-      </c>
-      <c r="E54" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>1</v>
       </c>
       <c r="B55" t="n">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>605.4370322337411</v>
+      </c>
+      <c r="E55" t="n">
         <v>30</v>
-      </c>
-      <c r="C55" t="n">
-        <v>27</v>
-      </c>
-      <c r="D55" t="n">
-        <v>268.7936011143123</v>
-      </c>
-      <c r="E55" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>1</v>
       </c>
       <c r="B56" t="n">
+        <v>15</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" t="n">
+        <v>216.0856311743102</v>
+      </c>
+      <c r="E56" t="n">
         <v>19</v>
-      </c>
-      <c r="C56" t="n">
-        <v>26</v>
-      </c>
-      <c r="D56" t="n">
-        <v>217.6235281397671</v>
-      </c>
-      <c r="E56" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" t="n">
+        <v>15</v>
+      </c>
+      <c r="D57" t="n">
+        <v>216.0856311743102</v>
+      </c>
+      <c r="E57" t="n">
         <v>19</v>
-      </c>
-      <c r="D57" t="n">
-        <v>217.6235281397671</v>
-      </c>
-      <c r="E57" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>129.0348790056394</v>
+        <v>198.5170017907786</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>129.0348790056394</v>
+        <v>198.5170017907786</v>
       </c>
       <c r="E59" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>162.077142126828</v>
+        <v>119.6411300515003</v>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>162.077142126828</v>
+        <v>119.6411300515003</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>181.0027624098594</v>
+        <v>186.1316738225926</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>181.0027624098594</v>
+        <v>186.1316738225926</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>192.566871501824</v>
+        <v>88.86506625215557</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>192.566871501824</v>
+        <v>88.86506625215557</v>
       </c>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1556,13 +1556,13 @@
         <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D66" t="n">
-        <v>206.7123605399542</v>
+        <v>296.3663273720549</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
         <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>206.7123605399542</v>
+        <v>296.3663273720549</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>86.68333173107735</v>
+        <v>297.0690155502589</v>
       </c>
       <c r="E68" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>86.68333173107735</v>
+        <v>297.0690155502589</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" t="n">
-        <v>148.2464164828277</v>
+        <v>99.02019995940222</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C71" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>148.2464164828277</v>
+        <v>99.02019995940222</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
-        <v>56.22277118748239</v>
+        <v>165.7377446449661</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>56.22277118748239</v>
+        <v>165.7377446449661</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -1695,10 +1695,10 @@
         <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>49.73932046178355</v>
+        <v>229.7324530840168</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -1712,10 +1712,10 @@
         <v>18</v>
       </c>
       <c r="D75" t="n">
-        <v>49.73932046178355</v>
+        <v>229.7324530840168</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76" t="n">
-        <v>216.1480973777007</v>
+        <v>99.12618221237011</v>
       </c>
       <c r="E76" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>216.1480973777007</v>
+        <v>99.12618221237011</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
-        <v>266.8951104835006</v>
+        <v>140.2355161861645</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D79" t="n">
-        <v>266.8951104835006</v>
+        <v>140.2355161861645</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>88.0056816347672</v>
+        <v>231.2509459440112</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>88.0056816347672</v>
+        <v>231.2509459440112</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
@@ -1828,13 +1828,13 @@
         <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D82" t="n">
-        <v>113.1768527570899</v>
+        <v>73.55270219373317</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C83" t="n">
         <v>16</v>
       </c>
       <c r="D83" t="n">
-        <v>113.1768527570899</v>
+        <v>73.55270219373317</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C84" t="n">
         <v>22</v>
       </c>
       <c r="D84" t="n">
-        <v>132.9360748630709</v>
+        <v>256.7800615312646</v>
       </c>
       <c r="E84" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -1879,13 +1879,13 @@
         <v>22</v>
       </c>
       <c r="C85" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D85" t="n">
-        <v>132.9360748630709</v>
+        <v>256.7800615312646</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C86" t="n">
+        <v>11</v>
+      </c>
+      <c r="D86" t="n">
+        <v>521.4604491234211</v>
+      </c>
+      <c r="E86" t="n">
         <v>30</v>
-      </c>
-      <c r="D86" t="n">
-        <v>364.0673014704836</v>
-      </c>
-      <c r="E86" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>1</v>
       </c>
       <c r="B87" t="n">
+        <v>11</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>521.4604491234211</v>
+      </c>
+      <c r="E87" t="n">
         <v>30</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2</v>
-      </c>
-      <c r="D87" t="n">
-        <v>364.0673014704836</v>
-      </c>
-      <c r="E87" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C88" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D88" t="n">
-        <v>94.26027795418386</v>
+        <v>227.9692961782354</v>
       </c>
       <c r="E88" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C89" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D89" t="n">
-        <v>94.26027795418386</v>
+        <v>227.9692961782354</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D90" t="n">
-        <v>159.0503065070923</v>
+        <v>103.4698023579827</v>
       </c>
       <c r="E90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D91" t="n">
-        <v>159.0503065070923</v>
+        <v>103.4698023579827</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C92" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D92" t="n">
-        <v>201.7250604163994</v>
+        <v>341.0058650522011</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C93" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>201.7250604163994</v>
+        <v>341.0058650522011</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -2032,13 +2032,13 @@
         <v>8</v>
       </c>
       <c r="C94" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D94" t="n">
-        <v>225.4706189284981</v>
+        <v>292.1592031752551</v>
       </c>
       <c r="E94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C95" t="n">
         <v>8</v>
       </c>
       <c r="D95" t="n">
-        <v>225.4706189284981</v>
+        <v>292.1592031752551</v>
       </c>
       <c r="E95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>276.3711272908225</v>
+        <v>126.241831418908</v>
       </c>
       <c r="E96" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>1</v>
       </c>
       <c r="B97" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>276.3711272908225</v>
+        <v>126.241831418908</v>
       </c>
       <c r="E97" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D98" t="n">
-        <v>79.40403012442127</v>
+        <v>502.7802700981812</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
+        <v>22</v>
+      </c>
+      <c r="C99" t="n">
         <v>21</v>
       </c>
-      <c r="C99" t="n">
-        <v>13</v>
-      </c>
       <c r="D99" t="n">
-        <v>79.40403012442127</v>
+        <v>502.7802700981812</v>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C100" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D100" t="n">
-        <v>68.54195795277518</v>
+        <v>57.30619512757761</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D101" t="n">
-        <v>68.54195795277518</v>
+        <v>57.30619512757761</v>
       </c>
       <c r="E101" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>330.0242415338607</v>
+        <v>208.0600874747485</v>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>330.0242415338607</v>
+        <v>208.0600874747485</v>
       </c>
       <c r="E103" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C104" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D104" t="n">
-        <v>193.2149062572554</v>
+        <v>124.0362850137007</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D105" t="n">
-        <v>193.2149062572554</v>
+        <v>124.0362850137007</v>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -2233,13 +2233,13 @@
         <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C106" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>147.898613921835</v>
+        <v>105.0809211988551</v>
       </c>
       <c r="E106" t="n">
         <v>11</v>
@@ -2250,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D107" t="n">
-        <v>147.898613921835</v>
+        <v>105.0809211988551</v>
       </c>
       <c r="E107" t="n">
         <v>11</v>
@@ -2267,16 +2267,16 @@
         <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C108" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D108" t="n">
-        <v>247.7579463912308</v>
+        <v>98.47842403288143</v>
       </c>
       <c r="E108" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>1</v>
       </c>
       <c r="B109" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>247.7579463912308</v>
+        <v>98.47842403288143</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C110" t="n">
         <v>27</v>
       </c>
       <c r="D110" t="n">
-        <v>262.246067654026</v>
+        <v>253.8227728159946</v>
       </c>
       <c r="E110" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -2321,13 +2321,13 @@
         <v>27</v>
       </c>
       <c r="C111" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D111" t="n">
-        <v>262.246067654026</v>
+        <v>253.8227728159946</v>
       </c>
       <c r="E111" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="B112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
-        <v>148.0709289496085</v>
+        <v>147.5262688472802</v>
       </c>
       <c r="E112" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C113" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>148.0709289496085</v>
+        <v>147.5262688472802</v>
       </c>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D114" t="n">
-        <v>78.03204469959762</v>
+        <v>226.5855246921127</v>
       </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>1</v>
       </c>
       <c r="B115" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>78.03204469959762</v>
+        <v>226.5855246921127</v>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D116" t="n">
-        <v>165.3027525481654</v>
+        <v>114.9347641055569</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C117" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>165.3027525481654</v>
+        <v>114.9347641055569</v>
       </c>
       <c r="E117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D118" t="n">
-        <v>65.92419889539804</v>
+        <v>116.2110149684616</v>
       </c>
       <c r="E118" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C119" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" t="n">
-        <v>65.92419889539804</v>
+        <v>116.2110149684616</v>
       </c>
       <c r="E119" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C120" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D120" t="n">
-        <v>403.178620464925</v>
+        <v>168.4666139031707</v>
       </c>
       <c r="E120" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>1</v>
       </c>
       <c r="B121" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>403.178620464925</v>
+        <v>168.4666139031707</v>
       </c>
       <c r="E121" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C122" t="n">
         <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>211.603402619145</v>
+        <v>142.2146265332789</v>
       </c>
       <c r="E122" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
@@ -2525,13 +2525,13 @@
         <v>20</v>
       </c>
       <c r="C123" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>211.603402619145</v>
+        <v>142.2146265332789</v>
       </c>
       <c r="E123" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>1</v>
       </c>
       <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="n">
         <v>8</v>
       </c>
-      <c r="C124" t="n">
-        <v>12</v>
-      </c>
       <c r="D124" t="n">
-        <v>60.37383539249432</v>
+        <v>242.5386567126981</v>
       </c>
       <c r="E124" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>60.37383539249432</v>
+        <v>242.5386567126981</v>
       </c>
       <c r="E125" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D126" t="n">
-        <v>231.9051530259731</v>
+        <v>813.0614982890286</v>
       </c>
       <c r="E126" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,118 @@
         <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C127" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>813.0614982890286</v>
+      </c>
+      <c r="E127" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
         <v>12</v>
       </c>
-      <c r="D127" t="n">
-        <v>231.9051530259731</v>
-      </c>
-      <c r="E127" t="n">
+      <c r="C128" t="n">
+        <v>16</v>
+      </c>
+      <c r="D128" t="n">
+        <v>211.1421322237701</v>
+      </c>
+      <c r="E128" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>16</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12</v>
+      </c>
+      <c r="D129" t="n">
+        <v>211.1421322237701</v>
+      </c>
+      <c r="E129" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16</v>
+      </c>
+      <c r="D130" t="n">
+        <v>193.0388561922185</v>
+      </c>
+      <c r="E130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="n">
+        <v>16</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>193.0388561922185</v>
+      </c>
+      <c r="E131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12</v>
+      </c>
+      <c r="D132" t="n">
+        <v>169.7056274847714</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12</v>
+      </c>
+      <c r="C133" t="n">
+        <v>8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>169.7056274847714</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
